--- a/학사관리 샘플데이터/샘플-데이터-제1정규화(.xlsx
+++ b/학사관리 샘플데이터/샘플-데이터-제1정규화(.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="557">
   <si>
     <t>학번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1797,6 +1797,13 @@
   <si>
     <t>S0020</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0020</t>
   </si>
 </sst>
 </file>
@@ -2089,7 +2096,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AFE27EF-43B7-4808-99EA-AE410A6D5ED9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFE27EF-43B7-4808-99EA-AE410A6D5ED9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2150,7 +2157,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2B7F705-6773-49A6-B920-B47F42BEFA80}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B7F705-6773-49A6-B920-B47F42BEFA80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2503,14 +2510,14 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>214</v>
+        <v>555</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-6794-7337</v>
+        <v>010-9360-7334</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>314</v>
@@ -2532,14 +2539,14 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>215</v>
+        <v>453</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="0">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-4477-0934</v>
+        <v>010-7818-5215</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>315</v>
@@ -2561,14 +2568,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>216</v>
+        <v>454</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9158-4569</v>
+        <v>010-5550-7544</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>348</v>
@@ -2590,14 +2597,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>217</v>
+        <v>455</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9765-0719</v>
+        <v>010-1637-4545</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>349</v>
@@ -2619,14 +2626,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>218</v>
+        <v>456</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5128-1949</v>
+        <v>010-5429-7362</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>316</v>
@@ -2648,14 +2655,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>219</v>
+        <v>457</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5731-1236</v>
+        <v>010-5836-9314</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>317</v>
@@ -2677,14 +2684,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>220</v>
+        <v>458</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5322-1792</v>
+        <v>010-1727-1476</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>344</v>
@@ -2706,14 +2713,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>221</v>
+        <v>459</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7403-9750</v>
+        <v>010-6037-5318</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>318</v>
@@ -2735,14 +2742,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>222</v>
+        <v>460</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3964-2343</v>
+        <v>010-1470-9059</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>319</v>
@@ -2764,14 +2771,14 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>223</v>
+        <v>461</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3633-7325</v>
+        <v>010-6040-4486</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>346</v>
@@ -2793,14 +2800,14 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>224</v>
+        <v>462</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4312-6934</v>
+        <v>010-8881-5165</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>347</v>
@@ -2822,14 +2829,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>225</v>
+        <v>463</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8826-4882</v>
+        <v>010-7542-1298</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>320</v>
@@ -2851,14 +2858,14 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>226</v>
+        <v>464</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9226-9186</v>
+        <v>010-3330-1847</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>350</v>
@@ -2880,14 +2887,14 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>227</v>
+        <v>465</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5205-5722</v>
+        <v>010-3999-9499</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>321</v>
@@ -2909,14 +2916,14 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>228</v>
+        <v>466</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9228-0048</v>
+        <v>010-2047-1773</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>322</v>
@@ -2938,14 +2945,14 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>229</v>
+        <v>467</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7831-7350</v>
+        <v>010-9179-4628</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>323</v>
@@ -2967,14 +2974,14 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>230</v>
+        <v>468</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3609-4485</v>
+        <v>010-8689-2736</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>345</v>
@@ -2996,14 +3003,14 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>231</v>
+        <v>469</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1094-7416</v>
+        <v>010-6991-2378</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>351</v>
@@ -3025,14 +3032,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>232</v>
+        <v>470</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3801-0719</v>
+        <v>010-1050-8375</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>352</v>
@@ -3054,14 +3061,14 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>233</v>
+        <v>556</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8127-4640</v>
+        <v>010-5258-2918</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>353</v>
@@ -3083,14 +3090,14 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>234</v>
+        <v>472</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4602-7167</v>
+        <v>010-3445-0562</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>354</v>
@@ -3112,14 +3119,14 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>235</v>
+        <v>473</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9052-7131</v>
+        <v>010-4555-1508</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>355</v>
@@ -3141,14 +3148,14 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>236</v>
+        <v>474</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4803-7477</v>
+        <v>010-9902-1238</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>324</v>
@@ -3170,14 +3177,14 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>237</v>
+        <v>475</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6740-7446</v>
+        <v>010-4173-5613</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>325</v>
@@ -3199,14 +3206,14 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>238</v>
+        <v>476</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4781-4177</v>
+        <v>010-1430-3006</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>326</v>
@@ -3228,14 +3235,14 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>239</v>
+        <v>477</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1951-9809</v>
+        <v>010-9203-7155</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>356</v>
@@ -3257,14 +3264,14 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>240</v>
+        <v>478</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2258-2632</v>
+        <v>010-8487-3680</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>357</v>
@@ -3286,14 +3293,14 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>241</v>
+        <v>479</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7956-0518</v>
+        <v>010-9261-8922</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>358</v>
@@ -3315,14 +3322,14 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>242</v>
+        <v>480</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5893-3667</v>
+        <v>010-7373-4225</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>327</v>
@@ -3344,14 +3351,14 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>243</v>
+        <v>481</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2327-0658</v>
+        <v>010-9730-6535</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>328</v>
@@ -3373,14 +3380,14 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>244</v>
+        <v>482</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6534-2344</v>
+        <v>010-7860-7881</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>359</v>
@@ -3402,14 +3409,14 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>245</v>
+        <v>483</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1169-5906</v>
+        <v>010-6313-6001</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>329</v>
@@ -3431,14 +3438,14 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>246</v>
+        <v>484</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7883-4595</v>
+        <v>010-8199-8690</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>330</v>
@@ -3460,14 +3467,14 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>247</v>
+        <v>485</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8732-5958</v>
+        <v>010-4750-9466</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>331</v>
@@ -3489,14 +3496,14 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>248</v>
+        <v>486</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2627-1140</v>
+        <v>010-6698-9047</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>332</v>
@@ -3518,14 +3525,14 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>249</v>
+        <v>487</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7753-4169</v>
+        <v>010-4302-7735</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>333</v>
@@ -3547,14 +3554,14 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>250</v>
+        <v>488</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7613-0304</v>
+        <v>010-7109-0547</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>360</v>
@@ -3576,14 +3583,14 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>251</v>
+        <v>489</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5891-4708</v>
+        <v>010-8646-4695</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>361</v>
@@ -3605,14 +3612,14 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>252</v>
+        <v>490</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2011-1175</v>
+        <v>010-8173-0056</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>362</v>
@@ -3634,14 +3641,14 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>253</v>
+        <v>491</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4325-9953</v>
+        <v>010-8498-5932</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>363</v>
@@ -3663,14 +3670,14 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>254</v>
+        <v>492</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5877-0465</v>
+        <v>010-9499-6644</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>334</v>
@@ -3692,14 +3699,14 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>255</v>
+        <v>493</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8628-7674</v>
+        <v>010-3295-2553</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>335</v>
@@ -3721,14 +3728,14 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>256</v>
+        <v>494</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7978-2661</v>
+        <v>010-9242-0991</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>336</v>
@@ -3750,14 +3757,14 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>257</v>
+        <v>495</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C45" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9336-3661</v>
+        <v>010-1266-7701</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>337</v>
@@ -3779,14 +3786,14 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>258</v>
+        <v>496</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C46" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1928-2735</v>
+        <v>010-4002-5925</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>364</v>
@@ -3808,14 +3815,14 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>259</v>
+        <v>497</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6559-1700</v>
+        <v>010-5793-5090</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>365</v>
@@ -3837,14 +3844,14 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>260</v>
+        <v>498</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6691-5390</v>
+        <v>010-4682-6378</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>366</v>
@@ -3866,14 +3873,14 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>261</v>
+        <v>499</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9198-3303</v>
+        <v>010-1042-6390</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>367</v>
@@ -3895,14 +3902,14 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>262</v>
+        <v>500</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7330-6015</v>
+        <v>010-5520-8393</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>338</v>
@@ -3924,14 +3931,14 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>263</v>
+        <v>501</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2597-3514</v>
+        <v>010-5959-1058</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>339</v>
@@ -3953,14 +3960,14 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>264</v>
+        <v>502</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8558-2841</v>
+        <v>010-4334-4609</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>340</v>
@@ -3982,14 +3989,14 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>265</v>
+        <v>503</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C53" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6625-3793</v>
+        <v>010-6088-1052</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>341</v>
@@ -4011,14 +4018,14 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>266</v>
+        <v>504</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C54" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8195-5865</v>
+        <v>010-4957-7904</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>368</v>
@@ -4040,14 +4047,14 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>267</v>
+        <v>505</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C55" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4313-4630</v>
+        <v>010-1816-7472</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>369</v>
@@ -4069,14 +4076,14 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>268</v>
+        <v>506</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3304-3791</v>
+        <v>010-2147-5815</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>342</v>
@@ -4098,14 +4105,14 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>269</v>
+        <v>507</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5790-8359</v>
+        <v>010-9007-1378</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>370</v>
@@ -4127,14 +4134,14 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>270</v>
+        <v>508</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5235-8454</v>
+        <v>010-6245-2569</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>343</v>
@@ -4156,14 +4163,14 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>271</v>
+        <v>509</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2695-0723</v>
+        <v>010-4401-8738</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>371</v>
@@ -4185,14 +4192,14 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>272</v>
+        <v>510</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2865-5771</v>
+        <v>010-1464-5091</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>372</v>
@@ -4214,14 +4221,14 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>273</v>
+        <v>511</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>61</v>
       </c>
       <c r="C61" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3010-7658</v>
+        <v>010-1456-7775</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>373</v>
@@ -4243,14 +4250,14 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>274</v>
+        <v>512</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3242-8724</v>
+        <v>010-8047-0251</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>404</v>
@@ -4272,14 +4279,14 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>275</v>
+        <v>513</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>63</v>
       </c>
       <c r="C63" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2407-7106</v>
+        <v>010-3146-4003</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>374</v>
@@ -4301,14 +4308,14 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>276</v>
+        <v>514</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7160-4105</v>
+        <v>010-2914-9689</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>375</v>
@@ -4330,14 +4337,14 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>277</v>
+        <v>515</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C65" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1917-2643</v>
+        <v>010-3020-5158</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>376</v>
@@ -4359,14 +4366,14 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>278</v>
+        <v>516</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>66</v>
       </c>
       <c r="C66" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4381-8931</v>
+        <v>010-9221-6338</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>377</v>
@@ -4388,14 +4395,14 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>279</v>
+        <v>517</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>67</v>
       </c>
       <c r="C67" s="5" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-1602-3035</v>
+        <v>010-9360-8692</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>378</v>
@@ -4417,14 +4424,14 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>280</v>
+        <v>518</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9916-8249</v>
+        <v>010-3656-5058</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>379</v>
@@ -4446,14 +4453,14 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>281</v>
+        <v>519</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3473-6610</v>
+        <v>010-7443-4087</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>405</v>
@@ -4475,14 +4482,14 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>282</v>
+        <v>520</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5586-9789</v>
+        <v>010-5983-0446</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>380</v>
@@ -4504,14 +4511,14 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>283</v>
+        <v>521</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>71</v>
       </c>
       <c r="C71" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5362-3927</v>
+        <v>010-1334-0575</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>406</v>
@@ -4533,14 +4540,14 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>284</v>
+        <v>522</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>72</v>
       </c>
       <c r="C72" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8746-4571</v>
+        <v>010-7720-9565</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>381</v>
@@ -4562,14 +4569,14 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>285</v>
+        <v>523</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>73</v>
       </c>
       <c r="C73" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5887-6527</v>
+        <v>010-1910-3158</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>382</v>
@@ -4591,14 +4598,14 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>286</v>
+        <v>524</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1613-5794</v>
+        <v>010-7490-9367</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>383</v>
@@ -4620,14 +4627,14 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>287</v>
+        <v>525</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C75" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8160-5588</v>
+        <v>010-4656-0886</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>384</v>
@@ -4649,14 +4656,14 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>288</v>
+        <v>526</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C76" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2551-2785</v>
+        <v>010-6971-2643</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>407</v>
@@ -4678,14 +4685,14 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>289</v>
+        <v>527</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C77" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7136-4847</v>
+        <v>010-2950-4446</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>408</v>
@@ -4707,14 +4714,14 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>290</v>
+        <v>528</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C78" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3325-2456</v>
+        <v>010-1276-0269</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>385</v>
@@ -4736,14 +4743,14 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>291</v>
+        <v>529</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C79" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5965-8973</v>
+        <v>010-9452-1274</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>386</v>
@@ -4765,14 +4772,14 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>292</v>
+        <v>530</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>80</v>
       </c>
       <c r="C80" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4224-2625</v>
+        <v>010-8511-9601</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>409</v>
@@ -4794,14 +4801,14 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>293</v>
+        <v>531</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C81" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5483-4621</v>
+        <v>010-3105-0642</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>387</v>
@@ -4823,14 +4830,14 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>294</v>
+        <v>532</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C82" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4585-8488</v>
+        <v>010-3693-4224</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>410</v>
@@ -4852,14 +4859,14 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>295</v>
+        <v>533</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C83" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6657-1456</v>
+        <v>010-9830-7753</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>388</v>
@@ -4881,14 +4888,14 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>296</v>
+        <v>534</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>84</v>
       </c>
       <c r="C84" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1519-9205</v>
+        <v>010-6539-8334</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>389</v>
@@ -4910,14 +4917,14 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>297</v>
+        <v>535</v>
       </c>
       <c r="B85" s="19" t="s">
         <v>85</v>
       </c>
       <c r="C85" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4718-1017</v>
+        <v>010-5670-3689</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>390</v>
@@ -4939,14 +4946,14 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>298</v>
+        <v>536</v>
       </c>
       <c r="B86" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C86" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5650-5751</v>
+        <v>010-8368-5638</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>391</v>
@@ -4968,14 +4975,14 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>299</v>
+        <v>537</v>
       </c>
       <c r="B87" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3756-7374</v>
+        <v>010-2071-7234</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>392</v>
@@ -4997,14 +5004,14 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>300</v>
+        <v>538</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>88</v>
       </c>
       <c r="C88" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8394-1354</v>
+        <v>010-5955-9198</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>411</v>
@@ -5026,14 +5033,14 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>301</v>
+        <v>539</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>89</v>
       </c>
       <c r="C89" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1153-7905</v>
+        <v>010-1465-7482</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>393</v>
@@ -5055,14 +5062,14 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>302</v>
+        <v>540</v>
       </c>
       <c r="B90" s="19" t="s">
         <v>90</v>
       </c>
       <c r="C90" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1834-6793</v>
+        <v>010-8386-7574</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>394</v>
@@ -5084,14 +5091,14 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>303</v>
+        <v>541</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C91" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5515-7675</v>
+        <v>010-2461-0760</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>395</v>
@@ -5113,14 +5120,14 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>304</v>
+        <v>542</v>
       </c>
       <c r="B92" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C92" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3370-3497</v>
+        <v>010-4003-5126</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>396</v>
@@ -5142,14 +5149,14 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>305</v>
+        <v>543</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C93" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8505-3164</v>
+        <v>010-1924-2012</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>397</v>
@@ -5171,14 +5178,14 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>306</v>
+        <v>544</v>
       </c>
       <c r="B94" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C94" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9735-0551</v>
+        <v>010-7850-7806</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>398</v>
@@ -5200,14 +5207,14 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>307</v>
+        <v>545</v>
       </c>
       <c r="B95" s="19" t="s">
         <v>95</v>
       </c>
       <c r="C95" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4534-8386</v>
+        <v>010-3532-3673</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>412</v>
@@ -5229,14 +5236,14 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>308</v>
+        <v>546</v>
       </c>
       <c r="B96" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C96" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6336-4257</v>
+        <v>010-9756-4928</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>413</v>
@@ -5258,14 +5265,14 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>309</v>
+        <v>547</v>
       </c>
       <c r="B97" s="19" t="s">
         <v>97</v>
       </c>
       <c r="C97" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1509-4158</v>
+        <v>010-2130-4380</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>399</v>
@@ -5287,14 +5294,14 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>310</v>
+        <v>548</v>
       </c>
       <c r="B98" s="19" t="s">
         <v>98</v>
       </c>
       <c r="C98" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4087-6662</v>
+        <v>010-8403-9818</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>400</v>
@@ -5316,14 +5323,14 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>311</v>
+        <v>549</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C99" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6047-3132</v>
+        <v>010-7550-8133</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>401</v>
@@ -5345,14 +5352,14 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>312</v>
+        <v>550</v>
       </c>
       <c r="B100" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C100" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3795-0778</v>
+        <v>010-8095-8252</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>402</v>
@@ -5373,15 +5380,15 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
-        <v>313</v>
+      <c r="A101" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="B101" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C101" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8062-5889</v>
+        <v>010-3442-4403</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>403</v>
@@ -5406,7 +5413,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A101 F2:F101" numberStoredAsText="1"/>
+    <ignoredError sqref="F2:F101" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5415,8 +5422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5559,7 +5566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D701"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -15448,39 +15455,39 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:I22" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:I17" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="J2">
         <f ca="1">SUM(C2:E2)</f>
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="K2">
         <f ca="1">ROUND(AVERAGE(C2:E2),0)</f>
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -15492,39 +15499,39 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:I23" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J21" ca="1" si="3">SUM(C3:E3)</f>
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K21" ca="1" si="4">ROUND(AVERAGE(C3:E3),0)</f>
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -15540,35 +15547,35 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="3"/>
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -15580,39 +15587,39 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="3"/>
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -15624,39 +15631,39 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="3"/>
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -15668,39 +15675,39 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="3"/>
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -15712,39 +15719,39 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="3"/>
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -15756,39 +15763,39 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="3"/>
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -15800,39 +15807,39 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="3"/>
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -15844,39 +15851,39 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="3"/>
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -15888,39 +15895,39 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="3"/>
-        <v>175</v>
+        <v>266</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -15932,39 +15939,39 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="3"/>
-        <v>278</v>
+        <v>182</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -15976,39 +15983,39 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -16020,39 +16027,39 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="3"/>
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -16064,39 +16071,39 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="3"/>
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -16108,39 +16115,39 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -16152,39 +16159,39 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="3"/>
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -16196,39 +16203,39 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="3"/>
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -16240,39 +16247,39 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="3"/>
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -16284,39 +16291,39 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="3"/>
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -16328,39 +16335,39 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22:J85" ca="1" si="5">SUM(C22:E22)</f>
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="K22">
         <f t="shared" ref="K22:K85" ca="1" si="6">ROUND(AVERAGE(C22:E22),0)</f>
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -16372,39 +16379,39 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -16416,39 +16423,39 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:I87" ca="1" si="7">RANDBETWEEN(50,100)</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -16460,39 +16467,39 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -16504,39 +16511,39 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -16548,39 +16555,39 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -16592,39 +16599,39 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -16636,39 +16643,39 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="5"/>
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -16680,39 +16687,39 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -16724,39 +16731,39 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -16768,35 +16775,35 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
@@ -16812,39 +16819,39 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="5"/>
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -16856,39 +16863,39 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="5"/>
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -16900,39 +16907,39 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="5"/>
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -16944,39 +16951,39 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H36">
         <f t="shared" ref="F36:I99" ca="1" si="8">RANDBETWEEN(50,100)</f>
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="5"/>
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -16988,39 +16995,39 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E37">
         <f t="shared" ref="E37:I100" ca="1" si="9">RANDBETWEEN(50,100)</f>
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="5"/>
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -17032,7 +17039,7 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="7"/>
@@ -17040,31 +17047,31 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="8"/>
+        <v>71</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ca="1" si="8"/>
+        <v>71</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="8"/>
         <v>67</v>
       </c>
-      <c r="F38">
-        <f t="shared" ca="1" si="8"/>
-        <v>62</v>
-      </c>
-      <c r="G38">
-        <f t="shared" ca="1" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="H38">
-        <f t="shared" ca="1" si="8"/>
-        <v>88</v>
-      </c>
       <c r="I38">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="5"/>
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -17076,39 +17083,39 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="5"/>
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -17120,39 +17127,39 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="8"/>
         <v>96</v>
       </c>
-      <c r="F40">
-        <f t="shared" ca="1" si="8"/>
-        <v>68</v>
-      </c>
       <c r="G40">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="5"/>
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -17164,35 +17171,35 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="8"/>
         <v>57</v>
       </c>
-      <c r="G41">
-        <f t="shared" ca="1" si="8"/>
-        <v>55</v>
-      </c>
       <c r="H41">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="5"/>
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="6"/>
@@ -17208,39 +17215,39 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="5"/>
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -17252,39 +17259,39 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="5"/>
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -17296,39 +17303,39 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="8"/>
         <v>52</v>
-      </c>
-      <c r="F44">
-        <f t="shared" ca="1" si="8"/>
-        <v>56</v>
-      </c>
-      <c r="G44">
-        <f t="shared" ca="1" si="8"/>
-        <v>50</v>
-      </c>
-      <c r="H44">
-        <f t="shared" ca="1" si="8"/>
-        <v>82</v>
-      </c>
-      <c r="I44">
-        <f t="shared" ca="1" si="8"/>
-        <v>89</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="5"/>
-        <v>218</v>
+        <v>294</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -17340,39 +17347,39 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="9"/>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="5"/>
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -17384,39 +17391,39 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="9"/>
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="5"/>
-        <v>256</v>
+        <v>173</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -17428,39 +17435,39 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="9"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="5"/>
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -17472,39 +17479,39 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="5"/>
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -17516,39 +17523,39 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="9"/>
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="5"/>
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -17560,39 +17567,39 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="5"/>
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -17604,39 +17611,39 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="5"/>
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -17648,39 +17655,39 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="9"/>
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="5"/>
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -17692,39 +17699,39 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="9"/>
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="5"/>
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -17736,11 +17743,11 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="9"/>
@@ -17748,27 +17755,27 @@
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="5"/>
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="6"/>
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -17780,31 +17787,31 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ca="1" si="8"/>
         <v>77</v>
       </c>
-      <c r="H55">
-        <f t="shared" ca="1" si="8"/>
-        <v>79</v>
-      </c>
       <c r="I55">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="5"/>
@@ -17824,39 +17831,39 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="5"/>
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -17868,39 +17875,39 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="9"/>
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="5"/>
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -17912,39 +17919,39 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="9"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="5"/>
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -17956,39 +17963,39 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ca="1" si="8"/>
         <v>94</v>
       </c>
-      <c r="H59">
-        <f t="shared" ca="1" si="8"/>
-        <v>54</v>
-      </c>
       <c r="I59">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="5"/>
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -18000,39 +18007,39 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ca="1" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ca="1" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ca="1" si="8"/>
         <v>62</v>
-      </c>
-      <c r="G60">
-        <f t="shared" ca="1" si="8"/>
-        <v>93</v>
-      </c>
-      <c r="H60">
-        <f t="shared" ca="1" si="8"/>
-        <v>89</v>
-      </c>
-      <c r="I60">
-        <f t="shared" ca="1" si="8"/>
-        <v>54</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="5"/>
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -18044,39 +18051,39 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="5"/>
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -18088,39 +18095,39 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="8"/>
         <v>63</v>
       </c>
-      <c r="F62">
-        <f t="shared" ca="1" si="8"/>
-        <v>77</v>
-      </c>
       <c r="G62">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="5"/>
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -18132,35 +18139,35 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="5"/>
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="6"/>
@@ -18176,39 +18183,39 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="5"/>
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -18220,39 +18227,39 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="9"/>
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="5"/>
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -18264,39 +18271,39 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="5"/>
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -18308,39 +18315,39 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="5"/>
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -18352,39 +18359,39 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="9"/>
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="5"/>
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -18396,39 +18403,39 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="9"/>
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="5"/>
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -18440,39 +18447,39 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="5"/>
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -18484,39 +18491,39 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="5"/>
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="6"/>
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -18528,39 +18535,39 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="9"/>
+        <v>99</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="G72">
+        <f t="shared" ca="1" si="8"/>
         <v>50</v>
       </c>
-      <c r="F72">
-        <f t="shared" ca="1" si="8"/>
-        <v>67</v>
-      </c>
-      <c r="G72">
-        <f t="shared" ca="1" si="8"/>
-        <v>70</v>
-      </c>
       <c r="H72">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="5"/>
-        <v>181</v>
+        <v>281</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -18572,39 +18579,39 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="5"/>
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -18616,39 +18623,39 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="5"/>
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -18660,39 +18667,39 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="9"/>
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="5"/>
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -18704,39 +18711,39 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="9"/>
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="5"/>
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -18748,39 +18755,39 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="9"/>
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="J77">
         <f t="shared" ca="1" si="5"/>
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -18792,39 +18799,39 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="9"/>
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="5"/>
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -18836,39 +18843,39 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="9"/>
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="5"/>
-        <v>206</v>
+        <v>270</v>
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -18880,15 +18887,15 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="9"/>
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="8"/>
@@ -18896,23 +18903,23 @@
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="5"/>
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -18924,35 +18931,35 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="9"/>
+        <v>89</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="8"/>
         <v>93</v>
       </c>
-      <c r="F81">
-        <f t="shared" ca="1" si="8"/>
-        <v>64</v>
-      </c>
       <c r="G81">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="5"/>
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="6"/>
@@ -18968,39 +18975,39 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="9"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="8"/>
+        <v>78</v>
+      </c>
+      <c r="G82">
+        <f t="shared" ca="1" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ca="1" si="8"/>
         <v>73</v>
       </c>
-      <c r="G82">
-        <f t="shared" ca="1" si="8"/>
-        <v>81</v>
-      </c>
-      <c r="H82">
-        <f t="shared" ca="1" si="8"/>
-        <v>66</v>
-      </c>
       <c r="I82">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="5"/>
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -19012,23 +19019,23 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="8"/>
@@ -19036,15 +19043,15 @@
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="5"/>
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -19056,39 +19063,39 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="G84">
+        <f t="shared" ca="1" si="8"/>
         <v>78</v>
       </c>
-      <c r="G84">
-        <f t="shared" ca="1" si="8"/>
-        <v>65</v>
-      </c>
       <c r="H84">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="5"/>
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -19100,39 +19107,39 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="5"/>
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -19144,39 +19151,39 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="9"/>
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="J86">
         <f t="shared" ref="J86:J101" ca="1" si="10">SUM(C86:E86)</f>
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="K86">
         <f t="shared" ref="K86:K101" ca="1" si="11">ROUND(AVERAGE(C86:E86),0)</f>
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -19188,39 +19195,39 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="10"/>
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="11"/>
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -19232,39 +19239,39 @@
       </c>
       <c r="C88">
         <f t="shared" ref="C88:I101" ca="1" si="12">RANDBETWEEN(50,100)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="12"/>
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="9"/>
+        <v>76</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="8"/>
         <v>81</v>
       </c>
-      <c r="F88">
-        <f t="shared" ca="1" si="8"/>
-        <v>58</v>
-      </c>
       <c r="G88">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="10"/>
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="11"/>
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -19276,39 +19283,39 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="12"/>
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="12"/>
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="9"/>
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="8"/>
+        <v>77</v>
+      </c>
+      <c r="G89">
+        <f t="shared" ca="1" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="H89">
+        <f t="shared" ca="1" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="I89">
+        <f t="shared" ca="1" si="8"/>
         <v>68</v>
-      </c>
-      <c r="G89">
-        <f t="shared" ca="1" si="8"/>
-        <v>67</v>
-      </c>
-      <c r="H89">
-        <f t="shared" ca="1" si="8"/>
-        <v>79</v>
-      </c>
-      <c r="I89">
-        <f t="shared" ca="1" si="8"/>
-        <v>80</v>
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="10"/>
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="11"/>
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -19320,39 +19327,39 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="12"/>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="12"/>
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="9"/>
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="10"/>
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="11"/>
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -19364,39 +19371,39 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="12"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="10"/>
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="11"/>
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -19408,39 +19415,39 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="12"/>
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="12"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="10"/>
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="11"/>
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -19452,39 +19459,39 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="12"/>
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="10"/>
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -19500,35 +19507,35 @@
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="12"/>
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="10"/>
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="11"/>
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -19540,39 +19547,39 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="12"/>
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="10"/>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="11"/>
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -19584,27 +19591,27 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="12"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="12"/>
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="8"/>
@@ -19612,11 +19619,11 @@
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="10"/>
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="11"/>
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -19628,39 +19635,39 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="12"/>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="12"/>
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="8"/>
+        <v>89</v>
+      </c>
+      <c r="G97">
+        <f t="shared" ca="1" si="8"/>
         <v>86</v>
       </c>
-      <c r="F97">
-        <f t="shared" ca="1" si="8"/>
-        <v>86</v>
-      </c>
-      <c r="G97">
-        <f t="shared" ca="1" si="8"/>
-        <v>54</v>
-      </c>
       <c r="H97">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="10"/>
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="K97">
         <f t="shared" ca="1" si="11"/>
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -19672,39 +19679,39 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="12"/>
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="12"/>
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="G98">
+        <f t="shared" ca="1" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="H98">
+        <f t="shared" ca="1" si="8"/>
         <v>84</v>
       </c>
-      <c r="F98">
-        <f t="shared" ca="1" si="8"/>
-        <v>88</v>
-      </c>
-      <c r="G98">
-        <f t="shared" ca="1" si="8"/>
-        <v>70</v>
-      </c>
-      <c r="H98">
-        <f t="shared" ca="1" si="8"/>
-        <v>80</v>
-      </c>
       <c r="I98">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="10"/>
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="11"/>
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -19716,39 +19723,39 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="12"/>
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="12"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="10"/>
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="11"/>
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -19760,39 +19767,39 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="12"/>
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="12"/>
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="9"/>
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="9"/>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="9"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="9"/>
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="10"/>
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="11"/>
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -19804,39 +19811,39 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="12"/>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="12"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="12"/>
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="I101">
         <f t="shared" ca="1" si="12"/>
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="10"/>
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="K101">
         <f t="shared" ca="1" si="11"/>
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -19891,23 +19898,23 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:E22" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F2">
         <f ca="1">SUM(C2:E2)</f>
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="G2">
         <f ca="1">ROUND(AVERAGE(C2:E2),0)</f>
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -19919,23 +19926,23 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:E23" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="2">SUM(C3:E3)</f>
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="3">ROUND(AVERAGE(C3:E3),0)</f>
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -19947,23 +19954,23 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -19975,23 +19982,23 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -20003,23 +20010,23 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -20031,23 +20038,23 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -20059,23 +20066,23 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -20087,23 +20094,23 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -20115,23 +20122,23 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -20143,11 +20150,11 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
@@ -20155,11 +20162,11 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -20171,23 +20178,23 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -20199,23 +20206,23 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -20227,23 +20234,23 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -20255,23 +20262,23 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -20283,23 +20290,23 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -20311,23 +20318,23 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -20339,23 +20346,23 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -20367,23 +20374,23 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -20395,23 +20402,23 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -20423,23 +20430,23 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -20451,23 +20458,23 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -20479,23 +20486,23 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -20511,19 +20518,19 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -20535,23 +20542,23 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>262</v>
+        <v>209</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -20563,23 +20570,23 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -20591,23 +20598,23 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -20619,23 +20626,23 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -20647,23 +20654,23 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>243</v>
+        <v>184</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -20675,23 +20682,23 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -20703,23 +20710,23 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -20731,23 +20738,23 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -20763,19 +20770,19 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -20787,23 +20794,23 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -20815,23 +20822,23 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -20843,23 +20850,23 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -20871,23 +20878,23 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -20899,23 +20906,23 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -20927,23 +20934,23 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -20955,23 +20962,23 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -20983,23 +20990,23 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -21011,23 +21018,23 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -21039,23 +21046,23 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -21067,23 +21074,23 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -21095,23 +21102,23 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -21123,23 +21130,23 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -21151,23 +21158,23 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -21179,23 +21186,23 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>275</v>
+        <v>211</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -21207,23 +21214,23 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -21235,23 +21242,23 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -21263,23 +21270,23 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -21291,23 +21298,23 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -21319,23 +21326,23 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>189</v>
+        <v>256</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -21347,23 +21354,23 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -21375,23 +21382,23 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -21403,23 +21410,23 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -21431,23 +21438,23 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -21459,23 +21466,23 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -21487,23 +21494,23 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -21515,23 +21522,23 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -21543,23 +21550,23 @@
       </c>
       <c r="C61">
         <f t="shared" ref="C61:E101" ca="1" si="5">RANDBETWEEN(50,100)</f>
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -21571,23 +21578,23 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -21599,23 +21606,23 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -21627,23 +21634,23 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -21655,23 +21662,23 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -21683,23 +21690,23 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -21711,23 +21718,23 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F101" ca="1" si="6">SUM(C67:E67)</f>
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G101" ca="1" si="7">ROUND(AVERAGE(C67:E67),0)</f>
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -21739,23 +21746,23 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="6"/>
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -21767,23 +21774,23 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="6"/>
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -21795,23 +21802,23 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="6"/>
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -21823,23 +21830,23 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="6"/>
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -21851,23 +21858,23 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="6"/>
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -21879,23 +21886,23 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="6"/>
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -21907,23 +21914,23 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="6"/>
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -21935,23 +21942,23 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="6"/>
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -21963,23 +21970,23 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="6"/>
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -21991,23 +21998,23 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="6"/>
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -22019,23 +22026,23 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="6"/>
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -22047,23 +22054,23 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="6"/>
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -22075,23 +22082,23 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="6"/>
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -22103,23 +22110,23 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="6"/>
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -22131,23 +22138,23 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="6"/>
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -22159,23 +22166,23 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="6"/>
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -22187,23 +22194,23 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -22215,23 +22222,23 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -22243,23 +22250,23 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -22271,23 +22278,23 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -22299,23 +22306,23 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -22327,23 +22334,23 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -22355,23 +22362,23 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -22383,23 +22390,23 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="6"/>
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -22411,23 +22418,23 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="6"/>
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -22439,7 +22446,7 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="5"/>
@@ -22447,15 +22454,15 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="6"/>
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -22467,23 +22474,23 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="6"/>
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -22495,23 +22502,23 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="6"/>
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -22523,7 +22530,7 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="5"/>
@@ -22531,15 +22538,15 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="6"/>
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -22551,23 +22558,23 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="6"/>
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -22579,23 +22586,23 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="6"/>
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -22607,23 +22614,23 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="6"/>
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -22635,23 +22642,23 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="5"/>
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="6"/>
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -22663,23 +22670,23 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="6"/>
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
